--- a/data/CS4/Market Data/CS4_market_data_2025.xlsx
+++ b/data/CS4/Market Data/CS4_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6F195F-7C3C-411A-9367-58408D41D94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA271E2-AA99-4FC1-AAFE-6D45E61F7AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32580" yWindow="-7320" windowWidth="17310" windowHeight="9975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -159,34 +159,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2">
-            <v>43.71</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>21.855</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="B2">
-            <v>37.270000000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2">
-            <v>18.635000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/data/CS4/Market Data/CS4_market_data_2025.xlsx
+++ b/data/CS4/Market Data/CS4_market_data_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA271E2-AA99-4FC1-AAFE-6D45E61F7AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46575E94-FBA3-42A6-80E0-FEA357D6DA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32580" yWindow="-7320" windowWidth="17310" windowHeight="9975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41820" yWindow="-6870" windowWidth="17310" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,11 +1363,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -2769,7 +2768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B038B75F-C023-45BB-9C5E-2448F504CF83}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
